--- a/IPs 2lookout.xlsx
+++ b/IPs 2lookout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="IPs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>Suspected Malicious IP(Source)</t>
   </si>
@@ -311,6 +311,36 @@
   </si>
   <si>
     <t>seksburada.net</t>
+  </si>
+  <si>
+    <t>CISCO TALOS</t>
+  </si>
+  <si>
+    <t>IPVOID</t>
+  </si>
+  <si>
+    <t>DNS WATCH</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>no (paid)</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>virus total</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>VIRUS TOTAL</t>
+  </si>
+  <si>
+    <t>188.166.49.116</t>
   </si>
 </sst>
 </file>
@@ -738,16 +768,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.21875" customWidth="1"/>
     <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
@@ -1133,27 +1164,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1161,15 +1207,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1193,7 +1239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1201,7 +1247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1209,7 +1255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1217,7 +1263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -1225,7 +1271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1241,7 +1287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1249,7 +1295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1257,7 +1303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1265,7 +1311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -1346,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B17"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -1357,48 +1403,80 @@
     <col min="2" max="2" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1411,6 +1489,9 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
